--- a/DATA/collate_cultivar_data_new_order/data/smoothed_cumul_gdd_vs_season_day.xlsx
+++ b/DATA/collate_cultivar_data_new_order/data/smoothed_cumul_gdd_vs_season_day.xlsx
@@ -408,7 +408,7 @@
         <v>42917</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2">
         <v>10.1054208</v>
@@ -419,7 +419,7 @@
         <v>42917</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3">
         <v>10.1054208</v>
@@ -430,7 +430,7 @@
         <v>42918</v>
       </c>
       <c r="B4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C4">
         <v>10.6488464</v>
@@ -441,7 +441,7 @@
         <v>42918</v>
       </c>
       <c r="B5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C5">
         <v>10.6488464</v>
@@ -452,7 +452,7 @@
         <v>42919</v>
       </c>
       <c r="B6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C6">
         <v>11.2250248</v>
@@ -463,7 +463,7 @@
         <v>42919</v>
       </c>
       <c r="B7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C7">
         <v>11.2250248</v>
@@ -474,7 +474,7 @@
         <v>42920</v>
       </c>
       <c r="B8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C8">
         <v>11.8360834</v>
@@ -485,7 +485,7 @@
         <v>42920</v>
       </c>
       <c r="B9">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C9">
         <v>11.8360834</v>
@@ -496,7 +496,7 @@
         <v>42921</v>
       </c>
       <c r="B10">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C10">
         <v>12.4842068</v>
@@ -507,7 +507,7 @@
         <v>42921</v>
       </c>
       <c r="B11">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C11">
         <v>12.4842068</v>
@@ -518,7 +518,7 @@
         <v>42922</v>
       </c>
       <c r="B12">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C12">
         <v>13.1716023</v>
@@ -529,7 +529,7 @@
         <v>42922</v>
       </c>
       <c r="B13">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C13">
         <v>13.1716023</v>
@@ -540,7 +540,7 @@
         <v>42923</v>
       </c>
       <c r="B14">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C14">
         <v>13.9004552</v>
@@ -551,7 +551,7 @@
         <v>42923</v>
       </c>
       <c r="B15">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C15">
         <v>13.9004552</v>
@@ -562,7 +562,7 @@
         <v>42924</v>
       </c>
       <c r="B16">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C16">
         <v>14.6728732</v>
@@ -573,7 +573,7 @@
         <v>42924</v>
       </c>
       <c r="B17">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C17">
         <v>14.6728732</v>
@@ -584,7 +584,7 @@
         <v>42925</v>
       </c>
       <c r="B18">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C18">
         <v>15.4908179</v>
@@ -595,7 +595,7 @@
         <v>42925</v>
       </c>
       <c r="B19">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C19">
         <v>15.4908179</v>
@@ -606,7 +606,7 @@
         <v>42926</v>
       </c>
       <c r="B20">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C20">
         <v>16.356026</v>
@@ -617,7 +617,7 @@
         <v>42926</v>
       </c>
       <c r="B21">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C21">
         <v>16.356026</v>
@@ -628,7 +628,7 @@
         <v>42927</v>
       </c>
       <c r="B22">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C22">
         <v>17.2699193</v>
@@ -639,7 +639,7 @@
         <v>42927</v>
       </c>
       <c r="B23">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C23">
         <v>17.2699193</v>
@@ -650,7 +650,7 @@
         <v>42928</v>
       </c>
       <c r="B24">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C24">
         <v>18.233507</v>
@@ -661,7 +661,7 @@
         <v>42928</v>
       </c>
       <c r="B25">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C25">
         <v>18.233507</v>
@@ -672,7 +672,7 @@
         <v>42929</v>
       </c>
       <c r="B26">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C26">
         <v>19.2472831</v>
@@ -683,7 +683,7 @@
         <v>42929</v>
       </c>
       <c r="B27">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C27">
         <v>19.2472831</v>
@@ -694,7 +694,7 @@
         <v>42930</v>
       </c>
       <c r="B28">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C28">
         <v>20.311124</v>
@@ -705,7 +705,7 @@
         <v>42930</v>
       </c>
       <c r="B29">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C29">
         <v>20.311124</v>
@@ -716,7 +716,7 @@
         <v>42931</v>
       </c>
       <c r="B30">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C30">
         <v>21.4241912</v>
@@ -727,7 +727,7 @@
         <v>42931</v>
       </c>
       <c r="B31">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C31">
         <v>21.4241912</v>
@@ -738,7 +738,7 @@
         <v>42932</v>
       </c>
       <c r="B32">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C32">
         <v>22.5848463</v>
@@ -749,7 +749,7 @@
         <v>42932</v>
       </c>
       <c r="B33">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C33">
         <v>22.5848463</v>
@@ -760,7 +760,7 @@
         <v>42933</v>
       </c>
       <c r="B34">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C34">
         <v>23.7905841</v>
@@ -771,7 +771,7 @@
         <v>42933</v>
       </c>
       <c r="B35">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C35">
         <v>23.7905841</v>
@@ -782,7 +782,7 @@
         <v>42934</v>
       </c>
       <c r="B36">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C36">
         <v>25.0379917</v>
@@ -793,7 +793,7 @@
         <v>42934</v>
       </c>
       <c r="B37">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C37">
         <v>25.0379917</v>
@@ -804,7 +804,7 @@
         <v>42935</v>
       </c>
       <c r="B38">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C38">
         <v>26.3227385</v>
@@ -815,7 +815,7 @@
         <v>42935</v>
       </c>
       <c r="B39">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C39">
         <v>26.3227385</v>
@@ -826,7 +826,7 @@
         <v>42936</v>
       </c>
       <c r="B40">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C40">
         <v>27.6396014</v>
@@ -837,7 +837,7 @@
         <v>42936</v>
       </c>
       <c r="B41">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C41">
         <v>27.6396014</v>
@@ -848,7 +848,7 @@
         <v>42937</v>
       </c>
       <c r="B42">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C42">
         <v>28.9825292</v>
@@ -859,7 +859,7 @@
         <v>42937</v>
       </c>
       <c r="B43">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C43">
         <v>28.9825292</v>
@@ -870,7 +870,7 @@
         <v>42938</v>
       </c>
       <c r="B44">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C44">
         <v>30.3447445</v>
@@ -881,7 +881,7 @@
         <v>42938</v>
       </c>
       <c r="B45">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C45">
         <v>30.3447445</v>
@@ -892,7 +892,7 @@
         <v>42939</v>
       </c>
       <c r="B46">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C46">
         <v>31.7188824</v>
@@ -903,7 +903,7 @@
         <v>42939</v>
       </c>
       <c r="B47">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C47">
         <v>31.7188824</v>
@@ -914,7 +914,7 @@
         <v>42940</v>
       </c>
       <c r="B48">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C48">
         <v>33.0971601</v>
@@ -925,7 +925,7 @@
         <v>42940</v>
       </c>
       <c r="B49">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C49">
         <v>33.0971601</v>
@@ -936,7 +936,7 @@
         <v>42941</v>
       </c>
       <c r="B50">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C50">
         <v>34.4715717</v>
@@ -947,7 +947,7 @@
         <v>42941</v>
       </c>
       <c r="B51">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C51">
         <v>34.4715717</v>
@@ -958,7 +958,7 @@
         <v>42942</v>
       </c>
       <c r="B52">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C52">
         <v>35.8340982</v>
@@ -969,7 +969,7 @@
         <v>42942</v>
       </c>
       <c r="B53">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C53">
         <v>35.8340982</v>
@@ -980,7 +980,7 @@
         <v>42943</v>
       </c>
       <c r="B54">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C54">
         <v>37.176925</v>
@@ -991,7 +991,7 @@
         <v>42943</v>
       </c>
       <c r="B55">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C55">
         <v>37.176925</v>
@@ -1002,7 +1002,7 @@
         <v>42944</v>
       </c>
       <c r="B56">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C56">
         <v>38.4926556</v>
@@ -1013,7 +1013,7 @@
         <v>42944</v>
       </c>
       <c r="B57">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C57">
         <v>38.4926556</v>
@@ -1024,7 +1024,7 @@
         <v>42945</v>
       </c>
       <c r="B58">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C58">
         <v>39.7745129</v>
@@ -1035,7 +1035,7 @@
         <v>42945</v>
       </c>
       <c r="B59">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C59">
         <v>39.7745129</v>
@@ -1046,7 +1046,7 @@
         <v>42946</v>
       </c>
       <c r="B60">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C60">
         <v>41.0165199</v>
@@ -1057,7 +1057,7 @@
         <v>42946</v>
       </c>
       <c r="B61">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C61">
         <v>41.0165199</v>
@@ -1068,7 +1068,7 @@
         <v>42947</v>
       </c>
       <c r="B62">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C62">
         <v>42.2136523</v>
@@ -1079,7 +1079,7 @@
         <v>42947</v>
       </c>
       <c r="B63">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C63">
         <v>42.2136523</v>
@@ -1090,7 +1090,7 @@
         <v>42948</v>
       </c>
       <c r="B64">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C64">
         <v>43.3619594</v>
@@ -1101,7 +1101,7 @@
         <v>42948</v>
       </c>
       <c r="B65">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C65">
         <v>43.3619594</v>
@@ -1112,7 +1112,7 @@
         <v>42949</v>
       </c>
       <c r="B66">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C66">
         <v>44.4586477</v>
@@ -1123,7 +1123,7 @@
         <v>42949</v>
       </c>
       <c r="B67">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C67">
         <v>44.4586477</v>
@@ -1134,7 +1134,7 @@
         <v>42950</v>
       </c>
       <c r="B68">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C68">
         <v>45.502129</v>
@@ -1145,7 +1145,7 @@
         <v>42950</v>
       </c>
       <c r="B69">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C69">
         <v>45.502129</v>
@@ -1156,7 +1156,7 @@
         <v>42951</v>
       </c>
       <c r="B70">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C70">
         <v>46.4920309</v>
@@ -1167,7 +1167,7 @@
         <v>42951</v>
       </c>
       <c r="B71">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C71">
         <v>46.4920309</v>
@@ -1178,7 +1178,7 @@
         <v>42952</v>
       </c>
       <c r="B72">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C72">
         <v>47.4291733</v>
@@ -1189,7 +1189,7 @@
         <v>42952</v>
       </c>
       <c r="B73">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C73">
         <v>47.4291733</v>
@@ -1200,7 +1200,7 @@
         <v>42953</v>
       </c>
       <c r="B74">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C74">
         <v>48.3155136</v>
@@ -1211,7 +1211,7 @@
         <v>42953</v>
       </c>
       <c r="B75">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C75">
         <v>48.3155136</v>
@@ -1222,7 +1222,7 @@
         <v>42954</v>
       </c>
       <c r="B76">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C76">
         <v>49.1540654</v>
@@ -1233,7 +1233,7 @@
         <v>42954</v>
       </c>
       <c r="B77">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C77">
         <v>49.1540654</v>
@@ -1244,7 +1244,7 @@
         <v>42955</v>
       </c>
       <c r="B78">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C78">
         <v>49.9487942</v>
@@ -1255,7 +1255,7 @@
         <v>42955</v>
       </c>
       <c r="B79">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C79">
         <v>49.9487942</v>
@@ -1266,7 +1266,7 @@
         <v>42956</v>
       </c>
       <c r="B80">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C80">
         <v>50.7044969</v>
@@ -1277,7 +1277,7 @@
         <v>42956</v>
       </c>
       <c r="B81">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C81">
         <v>50.7044969</v>
@@ -1288,7 +1288,7 @@
         <v>42957</v>
       </c>
       <c r="B82">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C82">
         <v>51.4266684</v>
@@ -1299,7 +1299,7 @@
         <v>42957</v>
       </c>
       <c r="B83">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C83">
         <v>51.4266684</v>
@@ -1310,7 +1310,7 @@
         <v>42958</v>
       </c>
       <c r="B84">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C84">
         <v>52.1213615</v>
@@ -1321,7 +1321,7 @@
         <v>42958</v>
       </c>
       <c r="B85">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C85">
         <v>52.1213615</v>
@@ -1332,7 +1332,7 @@
         <v>42959</v>
       </c>
       <c r="B86">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C86">
         <v>52.7950433</v>
@@ -1343,7 +1343,7 @@
         <v>42959</v>
       </c>
       <c r="B87">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C87">
         <v>52.7950433</v>
@@ -1354,7 +1354,7 @@
         <v>42960</v>
       </c>
       <c r="B88">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C88">
         <v>53.4544526</v>
@@ -1365,7 +1365,7 @@
         <v>42960</v>
       </c>
       <c r="B89">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C89">
         <v>53.4544526</v>
@@ -1376,7 +1376,7 @@
         <v>42961</v>
       </c>
       <c r="B90">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C90">
         <v>54.1064611</v>
@@ -1387,7 +1387,7 @@
         <v>42961</v>
       </c>
       <c r="B91">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C91">
         <v>54.1064611</v>
@@ -1398,7 +1398,7 @@
         <v>42962</v>
       </c>
       <c r="B92">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C92">
         <v>54.7579413</v>
@@ -1409,7 +1409,7 @@
         <v>42962</v>
       </c>
       <c r="B93">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C93">
         <v>54.7579413</v>
@@ -1420,7 +1420,7 @@
         <v>42963</v>
       </c>
       <c r="B94">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C94">
         <v>55.4156427</v>
@@ -1431,7 +1431,7 @@
         <v>42963</v>
       </c>
       <c r="B95">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C95">
         <v>55.4156427</v>
@@ -1442,7 +1442,7 @@
         <v>42964</v>
       </c>
       <c r="B96">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C96">
         <v>56.0860783</v>
@@ -1453,7 +1453,7 @@
         <v>42964</v>
       </c>
       <c r="B97">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C97">
         <v>56.0860783</v>
@@ -1464,7 +1464,7 @@
         <v>42965</v>
       </c>
       <c r="B98">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C98">
         <v>56.775422</v>
@@ -1475,7 +1475,7 @@
         <v>42965</v>
       </c>
       <c r="B99">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C99">
         <v>56.775422</v>
@@ -1486,7 +1486,7 @@
         <v>42966</v>
       </c>
       <c r="B100">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C100">
         <v>57.4894192</v>
@@ -1497,7 +1497,7 @@
         <v>42966</v>
       </c>
       <c r="B101">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C101">
         <v>57.4894192</v>
@@ -1508,7 +1508,7 @@
         <v>42967</v>
       </c>
       <c r="B102">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C102">
         <v>58.2333101</v>
@@ -1519,7 +1519,7 @@
         <v>42967</v>
       </c>
       <c r="B103">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C103">
         <v>58.2333101</v>
@@ -1530,7 +1530,7 @@
         <v>42968</v>
       </c>
       <c r="B104">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C104">
         <v>59.0117673</v>
@@ -1541,7 +1541,7 @@
         <v>42968</v>
       </c>
       <c r="B105">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C105">
         <v>59.0117673</v>
@@ -1552,7 +1552,7 @@
         <v>42969</v>
       </c>
       <c r="B106">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C106">
         <v>59.8288489</v>
@@ -1563,7 +1563,7 @@
         <v>42969</v>
       </c>
       <c r="B107">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C107">
         <v>59.8288489</v>
@@ -1574,7 +1574,7 @@
         <v>42970</v>
       </c>
       <c r="B108">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C108">
         <v>60.6879668</v>
@@ -1585,7 +1585,7 @@
         <v>42970</v>
       </c>
       <c r="B109">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C109">
         <v>60.6879668</v>
@@ -1596,7 +1596,7 @@
         <v>42971</v>
       </c>
       <c r="B110">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C110">
         <v>61.5918722</v>
@@ -1607,7 +1607,7 @@
         <v>42971</v>
       </c>
       <c r="B111">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C111">
         <v>61.5918722</v>
@@ -1618,7 +1618,7 @@
         <v>42972</v>
       </c>
       <c r="B112">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C112">
         <v>62.542658</v>
@@ -1629,7 +1629,7 @@
         <v>42972</v>
       </c>
       <c r="B113">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C113">
         <v>62.542658</v>
@@ -1640,7 +1640,7 @@
         <v>42973</v>
       </c>
       <c r="B114">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C114">
         <v>63.5417793</v>
@@ -1651,7 +1651,7 @@
         <v>42973</v>
       </c>
       <c r="B115">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C115">
         <v>63.5417793</v>
@@ -1662,7 +1662,7 @@
         <v>42974</v>
       </c>
       <c r="B116">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C116">
         <v>64.59009039999999</v>
@@ -1673,7 +1673,7 @@
         <v>42974</v>
       </c>
       <c r="B117">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C117">
         <v>64.59009039999999</v>
@@ -1684,7 +1684,7 @@
         <v>42975</v>
       </c>
       <c r="B118">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C118">
         <v>65.6878995</v>
@@ -1695,7 +1695,7 @@
         <v>42975</v>
       </c>
       <c r="B119">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C119">
         <v>65.6878995</v>
@@ -1706,7 +1706,7 @@
         <v>42976</v>
       </c>
       <c r="B120">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C120">
         <v>66.8350384</v>
@@ -1717,7 +1717,7 @@
         <v>42976</v>
       </c>
       <c r="B121">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C121">
         <v>66.8350384</v>
@@ -1728,7 +1728,7 @@
         <v>42977</v>
       </c>
       <c r="B122">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C122">
         <v>68.0309458</v>
@@ -1739,7 +1739,7 @@
         <v>42977</v>
       </c>
       <c r="B123">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C123">
         <v>68.0309458</v>
@@ -1750,7 +1750,7 @@
         <v>42978</v>
       </c>
       <c r="B124">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C124">
         <v>69.27476160000001</v>
@@ -1761,7 +1761,7 @@
         <v>42978</v>
       </c>
       <c r="B125">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C125">
         <v>69.27476160000001</v>
@@ -1772,7 +1772,7 @@
         <v>42979</v>
       </c>
       <c r="B126">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C126">
         <v>70.56543000000001</v>
@@ -1783,7 +1783,7 @@
         <v>42979</v>
       </c>
       <c r="B127">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C127">
         <v>70.56543000000001</v>
@@ -1794,7 +1794,7 @@
         <v>42980</v>
       </c>
       <c r="B128">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C128">
         <v>71.90180549999999</v>
@@ -1805,7 +1805,7 @@
         <v>42980</v>
       </c>
       <c r="B129">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C129">
         <v>71.90180549999999</v>
@@ -1816,7 +1816,7 @@
         <v>42981</v>
       </c>
       <c r="B130">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C130">
         <v>73.28276150000001</v>
@@ -1827,7 +1827,7 @@
         <v>42981</v>
       </c>
       <c r="B131">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C131">
         <v>73.28276150000001</v>
@@ -1838,7 +1838,7 @@
         <v>42982</v>
       </c>
       <c r="B132">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C132">
         <v>74.7072938</v>
@@ -1849,7 +1849,7 @@
         <v>42982</v>
       </c>
       <c r="B133">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C133">
         <v>74.7072938</v>
@@ -1860,7 +1860,7 @@
         <v>42983</v>
       </c>
       <c r="B134">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C134">
         <v>76.1746189</v>
@@ -1871,7 +1871,7 @@
         <v>42983</v>
       </c>
       <c r="B135">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C135">
         <v>76.1746189</v>
@@ -1882,7 +1882,7 @@
         <v>42984</v>
       </c>
       <c r="B136">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C136">
         <v>77.6842616</v>
@@ -1893,7 +1893,7 @@
         <v>42984</v>
       </c>
       <c r="B137">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C137">
         <v>77.6842616</v>
@@ -1904,7 +1904,7 @@
         <v>42985</v>
       </c>
       <c r="B138">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C138">
         <v>79.2361293</v>
@@ -1915,7 +1915,7 @@
         <v>42985</v>
       </c>
       <c r="B139">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C139">
         <v>79.2361293</v>
@@ -1926,7 +1926,7 @@
         <v>42986</v>
       </c>
       <c r="B140">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C140">
         <v>80.830572</v>
@@ -1937,7 +1937,7 @@
         <v>42986</v>
       </c>
       <c r="B141">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C141">
         <v>80.830572</v>
@@ -1948,7 +1948,7 @@
         <v>42987</v>
       </c>
       <c r="B142">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C142">
         <v>82.468425</v>
@@ -1959,7 +1959,7 @@
         <v>42987</v>
       </c>
       <c r="B143">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C143">
         <v>82.468425</v>
@@ -1970,7 +1970,7 @@
         <v>42988</v>
       </c>
       <c r="B144">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C144">
         <v>84.1510341</v>
@@ -1981,7 +1981,7 @@
         <v>42988</v>
       </c>
       <c r="B145">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C145">
         <v>84.1510341</v>
@@ -1992,7 +1992,7 @@
         <v>42989</v>
       </c>
       <c r="B146">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C146">
         <v>85.880263</v>
@@ -2003,7 +2003,7 @@
         <v>42989</v>
       </c>
       <c r="B147">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C147">
         <v>85.880263</v>
@@ -2014,7 +2014,7 @@
         <v>42990</v>
       </c>
       <c r="B148">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C148">
         <v>87.6584828</v>
@@ -2025,7 +2025,7 @@
         <v>42990</v>
       </c>
       <c r="B149">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C149">
         <v>87.6584828</v>
@@ -2036,7 +2036,7 @@
         <v>42991</v>
       </c>
       <c r="B150">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C150">
         <v>89.4885432</v>
@@ -2047,7 +2047,7 @@
         <v>42991</v>
       </c>
       <c r="B151">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C151">
         <v>89.4885432</v>
@@ -2058,7 +2058,7 @@
         <v>42992</v>
       </c>
       <c r="B152">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C152">
         <v>91.373728</v>
@@ -2069,7 +2069,7 @@
         <v>42992</v>
       </c>
       <c r="B153">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C153">
         <v>91.373728</v>
@@ -2080,7 +2080,7 @@
         <v>42993</v>
       </c>
       <c r="B154">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C154">
         <v>93.3176935</v>
@@ -2091,7 +2091,7 @@
         <v>42993</v>
       </c>
       <c r="B155">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C155">
         <v>93.3176935</v>
@@ -2102,7 +2102,7 @@
         <v>42994</v>
       </c>
       <c r="B156">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C156">
         <v>95.32439239999999</v>
@@ -2113,7 +2113,7 @@
         <v>42994</v>
       </c>
       <c r="B157">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C157">
         <v>95.32439239999999</v>
@@ -2124,7 +2124,7 @@
         <v>42995</v>
       </c>
       <c r="B158">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C158">
         <v>97.3979835</v>
@@ -2135,7 +2135,7 @@
         <v>42995</v>
       </c>
       <c r="B159">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C159">
         <v>97.3979835</v>
@@ -2146,7 +2146,7 @@
         <v>42996</v>
       </c>
       <c r="B160">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C160">
         <v>99.5427292</v>
@@ -2157,7 +2157,7 @@
         <v>42996</v>
       </c>
       <c r="B161">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C161">
         <v>99.5427292</v>
@@ -2168,7 +2168,7 @@
         <v>42997</v>
       </c>
       <c r="B162">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C162">
         <v>101.7628827</v>
@@ -2179,7 +2179,7 @@
         <v>42997</v>
       </c>
       <c r="B163">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C163">
         <v>101.7628827</v>
@@ -2190,7 +2190,7 @@
         <v>42998</v>
       </c>
       <c r="B164">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C164">
         <v>104.0625668</v>
@@ -2201,7 +2201,7 @@
         <v>42998</v>
       </c>
       <c r="B165">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C165">
         <v>104.0625668</v>
@@ -2212,7 +2212,7 @@
         <v>42999</v>
       </c>
       <c r="B166">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C166">
         <v>106.4456494</v>
@@ -2223,7 +2223,7 @@
         <v>42999</v>
       </c>
       <c r="B167">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C167">
         <v>106.4456494</v>
@@ -2234,7 +2234,7 @@
         <v>43000</v>
       </c>
       <c r="B168">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C168">
         <v>108.9156182</v>
@@ -2245,7 +2245,7 @@
         <v>43000</v>
       </c>
       <c r="B169">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C169">
         <v>108.9156182</v>
@@ -2256,7 +2256,7 @@
         <v>43001</v>
       </c>
       <c r="B170">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C170">
         <v>111.4754608</v>
@@ -2267,7 +2267,7 @@
         <v>43001</v>
       </c>
       <c r="B171">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C171">
         <v>111.4754608</v>
@@ -2278,7 +2278,7 @@
         <v>43002</v>
       </c>
       <c r="B172">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C172">
         <v>114.1275558</v>
@@ -2289,7 +2289,7 @@
         <v>43002</v>
       </c>
       <c r="B173">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C173">
         <v>114.1275558</v>
@@ -2300,7 +2300,7 @@
         <v>43003</v>
       </c>
       <c r="B174">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C174">
         <v>116.8735825</v>
@@ -2311,7 +2311,7 @@
         <v>43003</v>
       </c>
       <c r="B175">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C175">
         <v>116.8735825</v>
@@ -2322,7 +2322,7 @@
         <v>43004</v>
       </c>
       <c r="B176">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C176">
         <v>119.7144548</v>
@@ -2333,7 +2333,7 @@
         <v>43004</v>
       </c>
       <c r="B177">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C177">
         <v>119.7144548</v>
@@ -2344,7 +2344,7 @@
         <v>43005</v>
       </c>
       <c r="B178">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C178">
         <v>122.6502862</v>
@@ -2355,7 +2355,7 @@
         <v>43005</v>
       </c>
       <c r="B179">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C179">
         <v>122.6502862</v>
@@ -2366,7 +2366,7 @@
         <v>43006</v>
       </c>
       <c r="B180">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C180">
         <v>125.6803925</v>
@@ -2377,7 +2377,7 @@
         <v>43006</v>
       </c>
       <c r="B181">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C181">
         <v>125.6803925</v>
@@ -2388,7 +2388,7 @@
         <v>43007</v>
       </c>
       <c r="B182">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C182">
         <v>128.8033355</v>
@@ -2399,7 +2399,7 @@
         <v>43007</v>
       </c>
       <c r="B183">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C183">
         <v>128.8033355</v>
@@ -2410,7 +2410,7 @@
         <v>43008</v>
       </c>
       <c r="B184">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C184">
         <v>132.0170097</v>
@@ -2421,7 +2421,7 @@
         <v>43008</v>
       </c>
       <c r="B185">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C185">
         <v>132.0170097</v>
@@ -2432,7 +2432,7 @@
         <v>43009</v>
       </c>
       <c r="B186">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C186">
         <v>135.3187729</v>
@@ -2443,7 +2443,7 @@
         <v>43009</v>
       </c>
       <c r="B187">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C187">
         <v>135.3187729</v>
@@ -2454,7 +2454,7 @@
         <v>43010</v>
       </c>
       <c r="B188">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C188">
         <v>138.705615</v>
@@ -2465,7 +2465,7 @@
         <v>43010</v>
       </c>
       <c r="B189">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C189">
         <v>138.705615</v>
@@ -2476,7 +2476,7 @@
         <v>43011</v>
       </c>
       <c r="B190">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C190">
         <v>142.1743612</v>
@@ -2487,7 +2487,7 @@
         <v>43011</v>
       </c>
       <c r="B191">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C191">
         <v>142.1743612</v>
@@ -2498,7 +2498,7 @@
         <v>43012</v>
       </c>
       <c r="B192">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C192">
         <v>145.7218972</v>
@@ -2509,7 +2509,7 @@
         <v>43012</v>
       </c>
       <c r="B193">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C193">
         <v>145.7218972</v>
@@ -2520,7 +2520,7 @@
         <v>43013</v>
       </c>
       <c r="B194">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C194">
         <v>149.3454064</v>
@@ -2531,7 +2531,7 @@
         <v>43013</v>
       </c>
       <c r="B195">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C195">
         <v>149.3454064</v>
@@ -2542,7 +2542,7 @@
         <v>43014</v>
       </c>
       <c r="B196">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C196">
         <v>153.0426034</v>
@@ -2553,7 +2553,7 @@
         <v>43014</v>
       </c>
       <c r="B197">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C197">
         <v>153.0426034</v>
@@ -2564,7 +2564,7 @@
         <v>43015</v>
       </c>
       <c r="B198">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C198">
         <v>156.8119494</v>
@@ -2575,7 +2575,7 @@
         <v>43015</v>
       </c>
       <c r="B199">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C199">
         <v>156.8119494</v>
@@ -2586,7 +2586,7 @@
         <v>43016</v>
       </c>
       <c r="B200">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C200">
         <v>160.6528329</v>
@@ -2597,7 +2597,7 @@
         <v>43016</v>
       </c>
       <c r="B201">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C201">
         <v>160.6528329</v>
@@ -2608,7 +2608,7 @@
         <v>43017</v>
       </c>
       <c r="B202">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C202">
         <v>164.5657027</v>
@@ -2619,7 +2619,7 @@
         <v>43017</v>
       </c>
       <c r="B203">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C203">
         <v>164.5657027</v>
@@ -2630,7 +2630,7 @@
         <v>43018</v>
       </c>
       <c r="B204">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C204">
         <v>168.5521405</v>
@@ -2641,7 +2641,7 @@
         <v>43018</v>
       </c>
       <c r="B205">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C205">
         <v>168.5521405</v>
@@ -2652,7 +2652,7 @@
         <v>43019</v>
       </c>
       <c r="B206">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C206">
         <v>172.6148637</v>
@@ -2663,7 +2663,7 @@
         <v>43019</v>
       </c>
       <c r="B207">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C207">
         <v>172.6148637</v>
@@ -2674,7 +2674,7 @@
         <v>43020</v>
       </c>
       <c r="B208">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C208">
         <v>176.7576554</v>
@@ -2685,7 +2685,7 @@
         <v>43020</v>
       </c>
       <c r="B209">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C209">
         <v>176.7576554</v>
@@ -2696,7 +2696,7 @@
         <v>43021</v>
       </c>
       <c r="B210">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C210">
         <v>180.9852199</v>
@@ -2707,7 +2707,7 @@
         <v>43021</v>
       </c>
       <c r="B211">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C211">
         <v>180.9852199</v>
@@ -2718,7 +2718,7 @@
         <v>43022</v>
       </c>
       <c r="B212">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C212">
         <v>185.302971</v>
@@ -2729,7 +2729,7 @@
         <v>43022</v>
       </c>
       <c r="B213">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C213">
         <v>185.302971</v>
@@ -2740,7 +2740,7 @@
         <v>43023</v>
       </c>
       <c r="B214">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C214">
         <v>189.7167603</v>
@@ -2751,7 +2751,7 @@
         <v>43023</v>
       </c>
       <c r="B215">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C215">
         <v>189.7167603</v>
@@ -2762,7 +2762,7 @@
         <v>43024</v>
       </c>
       <c r="B216">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C216">
         <v>194.2325626</v>
@@ -2773,7 +2773,7 @@
         <v>43024</v>
       </c>
       <c r="B217">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C217">
         <v>194.2325626</v>
@@ -2784,7 +2784,7 @@
         <v>43025</v>
       </c>
       <c r="B218">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C218">
         <v>198.8561331</v>
@@ -2795,7 +2795,7 @@
         <v>43025</v>
       </c>
       <c r="B219">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C219">
         <v>198.8561331</v>
@@ -2806,7 +2806,7 @@
         <v>43026</v>
       </c>
       <c r="B220">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C220">
         <v>203.5926577</v>
@@ -2817,7 +2817,7 @@
         <v>43026</v>
       </c>
       <c r="B221">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C221">
         <v>203.5926577</v>
@@ -2828,7 +2828,7 @@
         <v>43027</v>
       </c>
       <c r="B222">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C222">
         <v>208.4464156</v>
@@ -2839,7 +2839,7 @@
         <v>43027</v>
       </c>
       <c r="B223">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C223">
         <v>208.4464156</v>
@@ -2850,7 +2850,7 @@
         <v>43028</v>
       </c>
       <c r="B224">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C224">
         <v>213.4204743</v>
@@ -2861,7 +2861,7 @@
         <v>43028</v>
       </c>
       <c r="B225">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C225">
         <v>213.4204743</v>
@@ -2872,7 +2872,7 @@
         <v>43029</v>
       </c>
       <c r="B226">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C226">
         <v>218.5164342</v>
@@ -2883,7 +2883,7 @@
         <v>43029</v>
       </c>
       <c r="B227">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C227">
         <v>218.5164342</v>
@@ -2894,7 +2894,7 @@
         <v>43030</v>
       </c>
       <c r="B228">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C228">
         <v>223.7342366</v>
@@ -2905,7 +2905,7 @@
         <v>43030</v>
       </c>
       <c r="B229">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C229">
         <v>223.7342366</v>
@@ -2916,7 +2916,7 @@
         <v>43031</v>
       </c>
       <c r="B230">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C230">
         <v>229.0720459</v>
@@ -2927,7 +2927,7 @@
         <v>43031</v>
       </c>
       <c r="B231">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C231">
         <v>229.0720459</v>
@@ -2938,7 +2938,7 @@
         <v>43032</v>
       </c>
       <c r="B232">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C232">
         <v>234.5262103</v>
@@ -2949,7 +2949,7 @@
         <v>43032</v>
       </c>
       <c r="B233">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C233">
         <v>234.5262103</v>
@@ -2960,7 +2960,7 @@
         <v>43033</v>
       </c>
       <c r="B234">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C234">
         <v>240.0913024</v>
@@ -2971,7 +2971,7 @@
         <v>43033</v>
       </c>
       <c r="B235">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C235">
         <v>240.0913024</v>
@@ -2982,7 +2982,7 @@
         <v>43034</v>
       </c>
       <c r="B236">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C236">
         <v>245.7602344</v>
@@ -2993,7 +2993,7 @@
         <v>43034</v>
       </c>
       <c r="B237">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C237">
         <v>245.7602344</v>
@@ -3004,7 +3004,7 @@
         <v>43035</v>
       </c>
       <c r="B238">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C238">
         <v>251.5244405</v>
@@ -3015,7 +3015,7 @@
         <v>43035</v>
       </c>
       <c r="B239">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C239">
         <v>251.5244405</v>
@@ -3026,7 +3026,7 @@
         <v>43036</v>
       </c>
       <c r="B240">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C240">
         <v>257.374114</v>
@@ -3037,7 +3037,7 @@
         <v>43036</v>
       </c>
       <c r="B241">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C241">
         <v>257.374114</v>
@@ -3048,7 +3048,7 @@
         <v>43037</v>
       </c>
       <c r="B242">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C242">
         <v>263.2984864</v>
@@ -3059,7 +3059,7 @@
         <v>43037</v>
       </c>
       <c r="B243">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C243">
         <v>263.2984864</v>
@@ -3070,7 +3070,7 @@
         <v>43038</v>
       </c>
       <c r="B244">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C244">
         <v>269.2861327</v>
@@ -3081,7 +3081,7 @@
         <v>43038</v>
       </c>
       <c r="B245">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C245">
         <v>269.2861327</v>
@@ -3092,7 +3092,7 @@
         <v>43039</v>
       </c>
       <c r="B246">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C246">
         <v>275.3252896</v>
@@ -3103,7 +3103,7 @@
         <v>43039</v>
       </c>
       <c r="B247">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C247">
         <v>275.3252896</v>
@@ -3114,7 +3114,7 @@
         <v>43040</v>
       </c>
       <c r="B248">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C248">
         <v>281.4041709</v>
@@ -3125,7 +3125,7 @@
         <v>43040</v>
       </c>
       <c r="B249">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C249">
         <v>281.4041709</v>
@@ -3136,7 +3136,7 @@
         <v>43041</v>
       </c>
       <c r="B250">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C250">
         <v>287.5112714</v>
@@ -3147,7 +3147,7 @@
         <v>43041</v>
       </c>
       <c r="B251">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C251">
         <v>287.5112714</v>
@@ -3158,7 +3158,7 @@
         <v>43042</v>
       </c>
       <c r="B252">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C252">
         <v>293.6356464</v>
@@ -3169,7 +3169,7 @@
         <v>43042</v>
       </c>
       <c r="B253">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C253">
         <v>293.6356464</v>
@@ -3180,7 +3180,7 @@
         <v>43043</v>
       </c>
       <c r="B254">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C254">
         <v>299.7671624</v>
@@ -3191,7 +3191,7 @@
         <v>43043</v>
       </c>
       <c r="B255">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C255">
         <v>299.7671624</v>
@@ -3202,7 +3202,7 @@
         <v>43044</v>
       </c>
       <c r="B256">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C256">
         <v>305.8967133</v>
@@ -3213,7 +3213,7 @@
         <v>43044</v>
       </c>
       <c r="B257">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C257">
         <v>305.8967133</v>
@@ -3224,7 +3224,7 @@
         <v>43045</v>
       </c>
       <c r="B258">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C258">
         <v>312.0164</v>
@@ -3235,7 +3235,7 @@
         <v>43045</v>
       </c>
       <c r="B259">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C259">
         <v>312.0164</v>
@@ -3246,7 +3246,7 @@
         <v>43046</v>
       </c>
       <c r="B260">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C260">
         <v>318.1196728</v>
@@ -3257,7 +3257,7 @@
         <v>43046</v>
       </c>
       <c r="B261">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C261">
         <v>318.1196728</v>
@@ -3268,7 +3268,7 @@
         <v>43047</v>
       </c>
       <c r="B262">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C262">
         <v>324.2014367</v>
@@ -3279,7 +3279,7 @@
         <v>43047</v>
       </c>
       <c r="B263">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C263">
         <v>324.2014367</v>
@@ -3290,7 +3290,7 @@
         <v>43048</v>
       </c>
       <c r="B264">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C264">
         <v>330.2581222</v>
@@ -3301,7 +3301,7 @@
         <v>43048</v>
       </c>
       <c r="B265">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C265">
         <v>330.2581222</v>
@@ -3312,7 +3312,7 @@
         <v>43049</v>
       </c>
       <c r="B266">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C266">
         <v>336.2877213</v>
@@ -3323,7 +3323,7 @@
         <v>43049</v>
       </c>
       <c r="B267">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C267">
         <v>336.2877213</v>
@@ -3334,7 +3334,7 @@
         <v>43050</v>
       </c>
       <c r="B268">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C268">
         <v>342.2897922</v>
@@ -3345,7 +3345,7 @@
         <v>43050</v>
       </c>
       <c r="B269">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C269">
         <v>342.2897922</v>
@@ -3356,7 +3356,7 @@
         <v>43051</v>
       </c>
       <c r="B270">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C270">
         <v>348.2654314</v>
@@ -3367,7 +3367,7 @@
         <v>43051</v>
       </c>
       <c r="B271">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C271">
         <v>348.2654314</v>
@@ -3378,7 +3378,7 @@
         <v>43052</v>
       </c>
       <c r="B272">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C272">
         <v>354.2172173</v>
@@ -3389,7 +3389,7 @@
         <v>43052</v>
       </c>
       <c r="B273">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C273">
         <v>354.2172173</v>
@@ -3400,7 +3400,7 @@
         <v>43053</v>
       </c>
       <c r="B274">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C274">
         <v>360.1491231</v>
@@ -3411,7 +3411,7 @@
         <v>43053</v>
       </c>
       <c r="B275">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C275">
         <v>360.1491231</v>
@@ -3422,7 +3422,7 @@
         <v>43054</v>
       </c>
       <c r="B276">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C276">
         <v>366.0664025</v>
@@ -3433,7 +3433,7 @@
         <v>43054</v>
       </c>
       <c r="B277">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C277">
         <v>366.0664025</v>
@@ -3444,7 +3444,7 @@
         <v>43055</v>
       </c>
       <c r="B278">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C278">
         <v>371.9754479</v>
@@ -3455,7 +3455,7 @@
         <v>43055</v>
       </c>
       <c r="B279">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C279">
         <v>371.9754479</v>
@@ -3466,7 +3466,7 @@
         <v>43056</v>
       </c>
       <c r="B280">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C280">
         <v>377.8836246</v>
@@ -3477,7 +3477,7 @@
         <v>43056</v>
       </c>
       <c r="B281">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C281">
         <v>377.8836246</v>
@@ -3488,7 +3488,7 @@
         <v>43057</v>
       </c>
       <c r="B282">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C282">
         <v>383.7990837</v>
@@ -3499,7 +3499,7 @@
         <v>43057</v>
       </c>
       <c r="B283">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C283">
         <v>383.7990837</v>
@@ -3510,7 +3510,7 @@
         <v>43058</v>
       </c>
       <c r="B284">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C284">
         <v>389.7305573</v>
@@ -3521,7 +3521,7 @@
         <v>43058</v>
       </c>
       <c r="B285">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C285">
         <v>389.7305573</v>
@@ -3532,7 +3532,7 @@
         <v>43059</v>
       </c>
       <c r="B286">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C286">
         <v>395.6871437</v>
@@ -3543,7 +3543,7 @@
         <v>43059</v>
       </c>
       <c r="B287">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C287">
         <v>395.6871437</v>
@@ -3554,7 +3554,7 @@
         <v>43060</v>
       </c>
       <c r="B288">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C288">
         <v>401.6780856</v>
@@ -3565,7 +3565,7 @@
         <v>43060</v>
       </c>
       <c r="B289">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C289">
         <v>401.6780856</v>
@@ -3576,7 +3576,7 @@
         <v>43061</v>
       </c>
       <c r="B290">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C290">
         <v>407.7125521</v>
@@ -3587,7 +3587,7 @@
         <v>43061</v>
       </c>
       <c r="B291">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C291">
         <v>407.7125521</v>
@@ -3598,7 +3598,7 @@
         <v>43062</v>
       </c>
       <c r="B292">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C292">
         <v>413.7994278</v>
@@ -3609,7 +3609,7 @@
         <v>43062</v>
       </c>
       <c r="B293">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C293">
         <v>413.7994278</v>
@@ -3620,7 +3620,7 @@
         <v>43063</v>
       </c>
       <c r="B294">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C294">
         <v>419.9471202</v>
@@ -3631,7 +3631,7 @@
         <v>43063</v>
       </c>
       <c r="B295">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C295">
         <v>419.9471202</v>
@@ -3642,7 +3642,7 @@
         <v>43064</v>
       </c>
       <c r="B296">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C296">
         <v>426.1633879</v>
@@ -3653,7 +3653,7 @@
         <v>43064</v>
       </c>
       <c r="B297">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C297">
         <v>426.1633879</v>
@@ -3664,7 +3664,7 @@
         <v>43065</v>
       </c>
       <c r="B298">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C298">
         <v>432.4551984</v>
@@ -3675,7 +3675,7 @@
         <v>43065</v>
       </c>
       <c r="B299">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C299">
         <v>432.4551984</v>
@@ -3686,7 +3686,7 @@
         <v>43066</v>
       </c>
       <c r="B300">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C300">
         <v>438.8286166</v>
@@ -3697,7 +3697,7 @@
         <v>43066</v>
       </c>
       <c r="B301">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C301">
         <v>438.8286166</v>
@@ -3708,7 +3708,7 @@
         <v>43067</v>
       </c>
       <c r="B302">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C302">
         <v>445.288728</v>
@@ -3719,7 +3719,7 @@
         <v>43067</v>
       </c>
       <c r="B303">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C303">
         <v>445.288728</v>
@@ -3730,7 +3730,7 @@
         <v>43068</v>
       </c>
       <c r="B304">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C304">
         <v>451.8395967</v>
@@ -3741,7 +3741,7 @@
         <v>43068</v>
       </c>
       <c r="B305">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C305">
         <v>451.8395967</v>
@@ -3752,7 +3752,7 @@
         <v>43069</v>
       </c>
       <c r="B306">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C306">
         <v>458.4842566</v>
@@ -3763,7 +3763,7 @@
         <v>43069</v>
       </c>
       <c r="B307">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C307">
         <v>458.4842566</v>
@@ -3774,7 +3774,7 @@
         <v>43070</v>
       </c>
       <c r="B308">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C308">
         <v>465.2247337</v>
@@ -3785,7 +3785,7 @@
         <v>43070</v>
       </c>
       <c r="B309">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C309">
         <v>465.2247337</v>
@@ -3796,7 +3796,7 @@
         <v>43071</v>
       </c>
       <c r="B310">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C310">
         <v>472.0620954</v>
@@ -3807,7 +3807,7 @@
         <v>43071</v>
       </c>
       <c r="B311">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C311">
         <v>472.0620954</v>
@@ -3818,7 +3818,7 @@
         <v>43072</v>
       </c>
       <c r="B312">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C312">
         <v>478.9965221</v>
@@ -3829,7 +3829,7 @@
         <v>43072</v>
       </c>
       <c r="B313">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C313">
         <v>478.9965221</v>
@@ -3840,7 +3840,7 @@
         <v>43073</v>
       </c>
       <c r="B314">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C314">
         <v>486.0273964</v>
@@ -3851,7 +3851,7 @@
         <v>43073</v>
       </c>
       <c r="B315">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C315">
         <v>486.0273964</v>
@@ -3862,7 +3862,7 @@
         <v>43074</v>
       </c>
       <c r="B316">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C316">
         <v>493.1534042</v>
@@ -3873,7 +3873,7 @@
         <v>43074</v>
       </c>
       <c r="B317">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C317">
         <v>493.1534042</v>
@@ -3884,7 +3884,7 @@
         <v>43075</v>
       </c>
       <c r="B318">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C318">
         <v>500.3726428</v>
@@ -3895,7 +3895,7 @@
         <v>43075</v>
       </c>
       <c r="B319">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C319">
         <v>500.3726428</v>
@@ -3906,7 +3906,7 @@
         <v>43076</v>
       </c>
       <c r="B320">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C320">
         <v>507.6827323</v>
@@ -3917,7 +3917,7 @@
         <v>43076</v>
       </c>
       <c r="B321">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C321">
         <v>507.6827323</v>
@@ -3928,7 +3928,7 @@
         <v>43077</v>
       </c>
       <c r="B322">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C322">
         <v>515.0809261000001</v>
@@ -3939,7 +3939,7 @@
         <v>43077</v>
       </c>
       <c r="B323">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C323">
         <v>515.0809261000001</v>
@@ -3950,7 +3950,7 @@
         <v>43078</v>
       </c>
       <c r="B324">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C324">
         <v>522.5642172</v>
@@ -3961,7 +3961,7 @@
         <v>43078</v>
       </c>
       <c r="B325">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C325">
         <v>522.5642172</v>
@@ -3972,7 +3972,7 @@
         <v>43079</v>
       </c>
       <c r="B326">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C326">
         <v>530.129439</v>
@@ -3983,7 +3983,7 @@
         <v>43079</v>
       </c>
       <c r="B327">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C327">
         <v>530.129439</v>
@@ -3994,7 +3994,7 @@
         <v>43080</v>
       </c>
       <c r="B328">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C328">
         <v>537.7733586000001</v>
@@ -4005,7 +4005,7 @@
         <v>43080</v>
       </c>
       <c r="B329">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C329">
         <v>537.7733586000001</v>
@@ -4016,7 +4016,7 @@
         <v>43081</v>
       </c>
       <c r="B330">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C330">
         <v>545.4927613</v>
@@ -4027,7 +4027,7 @@
         <v>43081</v>
       </c>
       <c r="B331">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C331">
         <v>545.4927613</v>
@@ -4038,7 +4038,7 @@
         <v>43082</v>
       </c>
       <c r="B332">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C332">
         <v>553.2845261</v>
@@ -4049,7 +4049,7 @@
         <v>43082</v>
       </c>
       <c r="B333">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C333">
         <v>553.2845261</v>
@@ -4060,7 +4060,7 @@
         <v>43083</v>
       </c>
       <c r="B334">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C334">
         <v>561.1456908</v>
@@ -4071,7 +4071,7 @@
         <v>43083</v>
       </c>
       <c r="B335">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C335">
         <v>561.1456908</v>
@@ -4082,7 +4082,7 @@
         <v>43084</v>
       </c>
       <c r="B336">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C336">
         <v>569.0735074</v>
@@ -4093,7 +4093,7 @@
         <v>43084</v>
       </c>
       <c r="B337">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C337">
         <v>569.0735074</v>
@@ -4104,7 +4104,7 @@
         <v>43085</v>
       </c>
       <c r="B338">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C338">
         <v>577.0654853999999</v>
@@ -4115,7 +4115,7 @@
         <v>43085</v>
       </c>
       <c r="B339">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C339">
         <v>577.0654853999999</v>
@@ -4126,7 +4126,7 @@
         <v>43086</v>
       </c>
       <c r="B340">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C340">
         <v>585.1194235</v>
@@ -4137,7 +4137,7 @@
         <v>43086</v>
       </c>
       <c r="B341">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C341">
         <v>585.1194235</v>
@@ -4148,7 +4148,7 @@
         <v>43087</v>
       </c>
       <c r="B342">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C342">
         <v>593.2334289</v>
@@ -4159,7 +4159,7 @@
         <v>43087</v>
       </c>
       <c r="B343">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C343">
         <v>593.2334289</v>
@@ -4170,7 +4170,7 @@
         <v>43088</v>
       </c>
       <c r="B344">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C344">
         <v>601.4059228</v>
@@ -4181,7 +4181,7 @@
         <v>43088</v>
       </c>
       <c r="B345">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C345">
         <v>601.4059228</v>
@@ -4192,7 +4192,7 @@
         <v>43089</v>
       </c>
       <c r="B346">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C346">
         <v>609.6356325</v>
@@ -4203,7 +4203,7 @@
         <v>43089</v>
       </c>
       <c r="B347">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C347">
         <v>609.6356325</v>
@@ -4214,7 +4214,7 @@
         <v>43090</v>
       </c>
       <c r="B348">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C348">
         <v>617.9215696</v>
@@ -4225,7 +4225,7 @@
         <v>43090</v>
       </c>
       <c r="B349">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C349">
         <v>617.9215696</v>
@@ -4236,7 +4236,7 @@
         <v>43091</v>
       </c>
       <c r="B350">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C350">
         <v>626.2629957</v>
@@ -4247,7 +4247,7 @@
         <v>43091</v>
       </c>
       <c r="B351">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C351">
         <v>626.2629957</v>
@@ -4258,7 +4258,7 @@
         <v>43092</v>
       </c>
       <c r="B352">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C352">
         <v>634.6593764</v>
@@ -4269,7 +4269,7 @@
         <v>43092</v>
       </c>
       <c r="B353">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C353">
         <v>634.6593764</v>
@@ -4280,7 +4280,7 @@
         <v>43093</v>
       </c>
       <c r="B354">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C354">
         <v>643.1103266</v>
@@ -4291,7 +4291,7 @@
         <v>43093</v>
       </c>
       <c r="B355">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C355">
         <v>643.1103266</v>
@@ -4302,7 +4302,7 @@
         <v>43094</v>
       </c>
       <c r="B356">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C356">
         <v>651.6155497</v>
@@ -4313,7 +4313,7 @@
         <v>43094</v>
       </c>
       <c r="B357">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C357">
         <v>651.6155497</v>
@@ -4324,7 +4324,7 @@
         <v>43095</v>
       </c>
       <c r="B358">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C358">
         <v>660.174775</v>
@@ -4335,7 +4335,7 @@
         <v>43095</v>
       </c>
       <c r="B359">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C359">
         <v>660.174775</v>
@@ -4346,7 +4346,7 @@
         <v>43096</v>
       </c>
       <c r="B360">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C360">
         <v>668.7876973</v>
@@ -4357,7 +4357,7 @@
         <v>43096</v>
       </c>
       <c r="B361">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C361">
         <v>668.7876973</v>
@@ -4368,7 +4368,7 @@
         <v>43097</v>
       </c>
       <c r="B362">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C362">
         <v>677.4539236000001</v>
@@ -4379,7 +4379,7 @@
         <v>43097</v>
       </c>
       <c r="B363">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C363">
         <v>677.4539236000001</v>
@@ -4390,7 +4390,7 @@
         <v>43098</v>
       </c>
       <c r="B364">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C364">
         <v>686.1729301</v>
@@ -4401,7 +4401,7 @@
         <v>43098</v>
       </c>
       <c r="B365">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C365">
         <v>686.1729301</v>
@@ -4412,7 +4412,7 @@
         <v>43099</v>
       </c>
       <c r="B366">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C366">
         <v>694.9440356</v>
@@ -4423,7 +4423,7 @@
         <v>43099</v>
       </c>
       <c r="B367">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C367">
         <v>694.9440356</v>
@@ -4434,7 +4434,7 @@
         <v>43100</v>
       </c>
       <c r="B368">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C368">
         <v>703.7663907</v>
@@ -4445,7 +4445,7 @@
         <v>43100</v>
       </c>
       <c r="B369">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C369">
         <v>703.7663907</v>
@@ -4456,7 +4456,7 @@
         <v>43101</v>
       </c>
       <c r="B370">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C370">
         <v>712.6389884</v>
@@ -4467,7 +4467,7 @@
         <v>43101</v>
       </c>
       <c r="B371">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C371">
         <v>712.6389884</v>
@@ -4478,7 +4478,7 @@
         <v>43102</v>
       </c>
       <c r="B372">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C372">
         <v>721.5606935</v>
@@ -4489,7 +4489,7 @@
         <v>43102</v>
       </c>
       <c r="B373">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C373">
         <v>721.5606935</v>
@@ -4500,7 +4500,7 @@
         <v>43103</v>
       </c>
       <c r="B374">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C374">
         <v>730.5302913</v>
@@ -4511,7 +4511,7 @@
         <v>43103</v>
       </c>
       <c r="B375">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C375">
         <v>730.5302913</v>
@@ -4522,7 +4522,7 @@
         <v>43104</v>
       </c>
       <c r="B376">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C376">
         <v>739.5465525</v>
@@ -4533,7 +4533,7 @@
         <v>43104</v>
       </c>
       <c r="B377">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C377">
         <v>739.5465525</v>
@@ -4544,7 +4544,7 @@
         <v>43105</v>
       </c>
       <c r="B378">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C378">
         <v>748.6083106999999</v>
@@ -4555,7 +4555,7 @@
         <v>43105</v>
       </c>
       <c r="B379">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C379">
         <v>748.6083106999999</v>
@@ -4566,7 +4566,7 @@
         <v>43106</v>
       </c>
       <c r="B380">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C380">
         <v>757.7145487</v>
@@ -4577,7 +4577,7 @@
         <v>43106</v>
       </c>
       <c r="B381">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C381">
         <v>757.7145487</v>
@@ -4588,7 +4588,7 @@
         <v>43107</v>
       </c>
       <c r="B382">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C382">
         <v>766.8644861</v>
@@ -4599,7 +4599,7 @@
         <v>43107</v>
       </c>
       <c r="B383">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C383">
         <v>766.8644861</v>
@@ -4610,7 +4610,7 @@
         <v>43108</v>
       </c>
       <c r="B384">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C384">
         <v>776.0576649</v>
@@ -4621,7 +4621,7 @@
         <v>43108</v>
       </c>
       <c r="B385">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C385">
         <v>776.0576649</v>
@@ -4632,7 +4632,7 @@
         <v>43109</v>
       </c>
       <c r="B386">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C386">
         <v>785.2940261</v>
@@ -4643,7 +4643,7 @@
         <v>43109</v>
       </c>
       <c r="B387">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C387">
         <v>785.2940261</v>
@@ -4654,7 +4654,7 @@
         <v>43110</v>
       </c>
       <c r="B388">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C388">
         <v>794.5739724</v>
@@ -4665,7 +4665,7 @@
         <v>43110</v>
       </c>
       <c r="B389">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C389">
         <v>794.5739724</v>
@@ -4676,7 +4676,7 @@
         <v>43111</v>
       </c>
       <c r="B390">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C390">
         <v>803.8984137</v>
@@ -4687,7 +4687,7 @@
         <v>43111</v>
       </c>
       <c r="B391">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C391">
         <v>803.8984137</v>
@@ -4698,7 +4698,7 @@
         <v>43112</v>
       </c>
       <c r="B392">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C392">
         <v>813.2687899</v>
@@ -4709,7 +4709,7 @@
         <v>43112</v>
       </c>
       <c r="B393">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C393">
         <v>813.2687899</v>
@@ -4720,7 +4720,7 @@
         <v>43113</v>
       </c>
       <c r="B394">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C394">
         <v>822.6870723</v>
@@ -4731,7 +4731,7 @@
         <v>43113</v>
       </c>
       <c r="B395">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C395">
         <v>822.6870723</v>
@@ -4742,7 +4742,7 @@
         <v>43114</v>
       </c>
       <c r="B396">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C396">
         <v>832.1557392</v>
@@ -4753,7 +4753,7 @@
         <v>43114</v>
       </c>
       <c r="B397">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C397">
         <v>832.1557392</v>
@@ -4764,7 +4764,7 @@
         <v>43115</v>
       </c>
       <c r="B398">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C398">
         <v>841.677729</v>
@@ -4775,7 +4775,7 @@
         <v>43115</v>
       </c>
       <c r="B399">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C399">
         <v>841.677729</v>
@@ -4786,7 +4786,7 @@
         <v>43116</v>
       </c>
       <c r="B400">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C400">
         <v>851.2563706</v>
@@ -4797,7 +4797,7 @@
         <v>43116</v>
       </c>
       <c r="B401">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C401">
         <v>851.2563706</v>
@@ -4808,7 +4808,7 @@
         <v>43117</v>
       </c>
       <c r="B402">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C402">
         <v>860.8952942</v>
@@ -4819,7 +4819,7 @@
         <v>43117</v>
       </c>
       <c r="B403">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C403">
         <v>860.8952942</v>
@@ -4830,7 +4830,7 @@
         <v>43118</v>
       </c>
       <c r="B404">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C404">
         <v>870.5983265</v>
@@ -4841,7 +4841,7 @@
         <v>43118</v>
       </c>
       <c r="B405">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C405">
         <v>870.5983265</v>
@@ -4852,7 +4852,7 @@
         <v>43119</v>
       </c>
       <c r="B406">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C406">
         <v>880.3693719</v>
@@ -4863,7 +4863,7 @@
         <v>43119</v>
       </c>
       <c r="B407">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C407">
         <v>880.3693719</v>
@@ -4874,7 +4874,7 @@
         <v>43120</v>
       </c>
       <c r="B408">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C408">
         <v>890.2122859999999</v>
@@ -4885,7 +4885,7 @@
         <v>43120</v>
       </c>
       <c r="B409">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C409">
         <v>890.2122859999999</v>
@@ -4896,7 +4896,7 @@
         <v>43121</v>
       </c>
       <c r="B410">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C410">
         <v>900.1307441</v>
@@ -4907,7 +4907,7 @@
         <v>43121</v>
       </c>
       <c r="B411">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C411">
         <v>900.1307441</v>
@@ -4918,7 +4918,7 @@
         <v>43122</v>
       </c>
       <c r="B412">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C412">
         <v>910.1281082</v>
@@ -4929,7 +4929,7 @@
         <v>43122</v>
       </c>
       <c r="B413">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C413">
         <v>910.1281082</v>
@@ -4940,7 +4940,7 @@
         <v>43123</v>
       </c>
       <c r="B414">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C414">
         <v>920.2072959</v>
@@ -4951,7 +4951,7 @@
         <v>43123</v>
       </c>
       <c r="B415">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C415">
         <v>920.2072959</v>
@@ -4962,7 +4962,7 @@
         <v>43124</v>
       </c>
       <c r="B416">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C416">
         <v>930.3706549</v>
@@ -4973,7 +4973,7 @@
         <v>43124</v>
       </c>
       <c r="B417">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C417">
         <v>930.3706549</v>
@@ -4984,7 +4984,7 @@
         <v>43125</v>
       </c>
       <c r="B418">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C418">
         <v>940.6198441</v>
@@ -4995,7 +4995,7 @@
         <v>43125</v>
       </c>
       <c r="B419">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C419">
         <v>940.6198441</v>
@@ -5006,7 +5006,7 @@
         <v>43126</v>
       </c>
       <c r="B420">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C420">
         <v>950.955723</v>
@@ -5017,7 +5017,7 @@
         <v>43126</v>
       </c>
       <c r="B421">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C421">
         <v>950.955723</v>
@@ -5028,7 +5028,7 @@
         <v>43127</v>
       </c>
       <c r="B422">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C422">
         <v>961.3782521000001</v>
@@ -5039,7 +5039,7 @@
         <v>43127</v>
       </c>
       <c r="B423">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C423">
         <v>961.3782521000001</v>
@@ -5050,7 +5050,7 @@
         <v>43128</v>
       </c>
       <c r="B424">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C424">
         <v>971.8864038</v>
@@ -5061,7 +5061,7 @@
         <v>43128</v>
       </c>
       <c r="B425">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C425">
         <v>971.8864038</v>
@@ -5072,7 +5072,7 @@
         <v>43129</v>
       </c>
       <c r="B426">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C426">
         <v>982.4780847</v>
@@ -5083,7 +5083,7 @@
         <v>43129</v>
       </c>
       <c r="B427">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C427">
         <v>982.4780847</v>
@@ -5094,7 +5094,7 @@
         <v>43130</v>
       </c>
       <c r="B428">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C428">
         <v>993.1500708999999</v>
@@ -5105,7 +5105,7 @@
         <v>43130</v>
       </c>
       <c r="B429">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C429">
         <v>993.1500708999999</v>
@@ -5116,7 +5116,7 @@
         <v>43131</v>
       </c>
       <c r="B430">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C430">
         <v>1003.8979573</v>
@@ -5127,7 +5127,7 @@
         <v>43131</v>
       </c>
       <c r="B431">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C431">
         <v>1003.8979573</v>
@@ -5138,7 +5138,7 @@
         <v>43132</v>
       </c>
       <c r="B432">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C432">
         <v>1014.7161209</v>
@@ -5149,7 +5149,7 @@
         <v>43132</v>
       </c>
       <c r="B433">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C433">
         <v>1014.7161209</v>
@@ -5160,7 +5160,7 @@
         <v>43133</v>
       </c>
       <c r="B434">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C434">
         <v>1025.597702</v>
@@ -5171,7 +5171,7 @@
         <v>43133</v>
       </c>
       <c r="B435">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C435">
         <v>1025.597702</v>
@@ -5182,7 +5182,7 @@
         <v>43134</v>
       </c>
       <c r="B436">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C436">
         <v>1036.5346028</v>
@@ -5193,7 +5193,7 @@
         <v>43134</v>
       </c>
       <c r="B437">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C437">
         <v>1036.5346028</v>
@@ -5204,7 +5204,7 @@
         <v>43135</v>
       </c>
       <c r="B438">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C438">
         <v>1047.5175088</v>
@@ -5215,7 +5215,7 @@
         <v>43135</v>
       </c>
       <c r="B439">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C439">
         <v>1047.5175088</v>
@@ -5226,7 +5226,7 @@
         <v>43136</v>
       </c>
       <c r="B440">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C440">
         <v>1058.535933</v>
@@ -5237,7 +5237,7 @@
         <v>43136</v>
       </c>
       <c r="B441">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C441">
         <v>1058.535933</v>
@@ -5248,7 +5248,7 @@
         <v>43137</v>
       </c>
       <c r="B442">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C442">
         <v>1069.578287</v>
@@ -5259,7 +5259,7 @@
         <v>43137</v>
       </c>
       <c r="B443">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C443">
         <v>1069.578287</v>
@@ -5270,7 +5270,7 @@
         <v>43138</v>
       </c>
       <c r="B444">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C444">
         <v>1080.6319803</v>
@@ -5281,7 +5281,7 @@
         <v>43138</v>
       </c>
       <c r="B445">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C445">
         <v>1080.6319803</v>
@@ -5292,7 +5292,7 @@
         <v>43139</v>
       </c>
       <c r="B446">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C446">
         <v>1091.6835497</v>
@@ -5303,7 +5303,7 @@
         <v>43139</v>
       </c>
       <c r="B447">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C447">
         <v>1091.6835497</v>
@@ -5314,7 +5314,7 @@
         <v>43140</v>
       </c>
       <c r="B448">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C448">
         <v>1102.7188191</v>
@@ -5325,7 +5325,7 @@
         <v>43140</v>
       </c>
       <c r="B449">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C449">
         <v>1102.7188191</v>
@@ -5336,7 +5336,7 @@
         <v>43141</v>
       </c>
       <c r="B450">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C450">
         <v>1113.7230876</v>
@@ -5347,7 +5347,7 @@
         <v>43141</v>
       </c>
       <c r="B451">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C451">
         <v>1113.7230876</v>
@@ -5358,7 +5358,7 @@
         <v>43142</v>
       </c>
       <c r="B452">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C452">
         <v>1124.6813456</v>
@@ -5369,7 +5369,7 @@
         <v>43142</v>
       </c>
       <c r="B453">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C453">
         <v>1124.6813456</v>
@@ -5380,7 +5380,7 @@
         <v>43143</v>
       </c>
       <c r="B454">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C454">
         <v>1135.5785122</v>
@@ -5391,7 +5391,7 @@
         <v>43143</v>
       </c>
       <c r="B455">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C455">
         <v>1135.5785122</v>
@@ -5402,7 +5402,7 @@
         <v>43144</v>
       </c>
       <c r="B456">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C456">
         <v>1146.3996904</v>
@@ -5413,7 +5413,7 @@
         <v>43144</v>
       </c>
       <c r="B457">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C457">
         <v>1146.3996904</v>
@@ -5424,7 +5424,7 @@
         <v>43145</v>
       </c>
       <c r="B458">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C458">
         <v>1157.1304303</v>
@@ -5435,7 +5435,7 @@
         <v>43145</v>
       </c>
       <c r="B459">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C459">
         <v>1157.1304303</v>
@@ -5446,7 +5446,7 @@
         <v>43146</v>
       </c>
       <c r="B460">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C460">
         <v>1167.7569945</v>
@@ -5457,7 +5457,7 @@
         <v>43146</v>
       </c>
       <c r="B461">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C461">
         <v>1167.7569945</v>
@@ -5468,7 +5468,7 @@
         <v>43147</v>
       </c>
       <c r="B462">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C462">
         <v>1178.266614</v>
@@ -5479,7 +5479,7 @@
         <v>43147</v>
       </c>
       <c r="B463">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C463">
         <v>1178.266614</v>
@@ -5490,7 +5490,7 @@
         <v>43148</v>
       </c>
       <c r="B464">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C464">
         <v>1188.6477261</v>
@@ -5501,7 +5501,7 @@
         <v>43148</v>
       </c>
       <c r="B465">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C465">
         <v>1188.6477261</v>
@@ -5512,7 +5512,7 @@
         <v>43149</v>
       </c>
       <c r="B466">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C466">
         <v>1198.8901854</v>
@@ -5523,7 +5523,7 @@
         <v>43149</v>
       </c>
       <c r="B467">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C467">
         <v>1198.8901854</v>
@@ -5534,7 +5534,7 @@
         <v>43150</v>
       </c>
       <c r="B468">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C468">
         <v>1208.985438</v>
@@ -5545,7 +5545,7 @@
         <v>43150</v>
       </c>
       <c r="B469">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C469">
         <v>1208.985438</v>
@@ -5556,7 +5556,7 @@
         <v>43151</v>
       </c>
       <c r="B470">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C470">
         <v>1218.9266535</v>
@@ -5567,7 +5567,7 @@
         <v>43151</v>
       </c>
       <c r="B471">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C471">
         <v>1218.9266535</v>
@@ -5578,7 +5578,7 @@
         <v>43152</v>
       </c>
       <c r="B472">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C472">
         <v>1228.7088082</v>
@@ -5589,7 +5589,7 @@
         <v>43152</v>
       </c>
       <c r="B473">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C473">
         <v>1228.7088082</v>
@@ -5600,7 +5600,7 @@
         <v>43153</v>
       </c>
       <c r="B474">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C474">
         <v>1238.3287174</v>
@@ -5611,7 +5611,7 @@
         <v>43153</v>
       </c>
       <c r="B475">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C475">
         <v>1238.3287174</v>
@@ -5622,7 +5622,7 @@
         <v>43154</v>
       </c>
       <c r="B476">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C476">
         <v>1247.785016</v>
@@ -5633,7 +5633,7 @@
         <v>43154</v>
       </c>
       <c r="B477">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C477">
         <v>1247.785016</v>
@@ -5644,7 +5644,7 @@
         <v>43155</v>
       </c>
       <c r="B478">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C478">
         <v>1257.078089</v>
@@ -5655,7 +5655,7 @@
         <v>43155</v>
       </c>
       <c r="B479">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C479">
         <v>1257.078089</v>
@@ -5666,7 +5666,7 @@
         <v>43156</v>
       </c>
       <c r="B480">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C480">
         <v>1266.2099555</v>
@@ -5677,7 +5677,7 @@
         <v>43156</v>
       </c>
       <c r="B481">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C481">
         <v>1266.2099555</v>
@@ -5688,7 +5688,7 @@
         <v>43157</v>
       </c>
       <c r="B482">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C482">
         <v>1275.184114</v>
@@ -5699,7 +5699,7 @@
         <v>43157</v>
       </c>
       <c r="B483">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C483">
         <v>1275.184114</v>
@@ -5710,7 +5710,7 @@
         <v>43158</v>
       </c>
       <c r="B484">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C484">
         <v>1284.0053537</v>
@@ -5721,7 +5721,7 @@
         <v>43158</v>
       </c>
       <c r="B485">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C485">
         <v>1284.0053537</v>
@@ -5732,7 +5732,7 @@
         <v>43159</v>
       </c>
       <c r="B486">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C486">
         <v>1292.6795427</v>
@@ -5743,7 +5743,7 @@
         <v>43159</v>
       </c>
       <c r="B487">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C487">
         <v>1292.6795427</v>
@@ -5754,7 +5754,7 @@
         <v>43160</v>
       </c>
       <c r="B488">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C488">
         <v>1301.2134002</v>
@@ -5765,7 +5765,7 @@
         <v>43160</v>
       </c>
       <c r="B489">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C489">
         <v>1301.2134002</v>
@@ -5776,7 +5776,7 @@
         <v>43161</v>
       </c>
       <c r="B490">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C490">
         <v>1309.614262</v>
@@ -5787,7 +5787,7 @@
         <v>43161</v>
       </c>
       <c r="B491">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C491">
         <v>1309.614262</v>
@@ -5798,7 +5798,7 @@
         <v>43162</v>
       </c>
       <c r="B492">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C492">
         <v>1317.8898471</v>
@@ -5809,7 +5809,7 @@
         <v>43162</v>
       </c>
       <c r="B493">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C493">
         <v>1317.8898471</v>
@@ -5820,7 +5820,7 @@
         <v>43163</v>
       </c>
       <c r="B494">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C494">
         <v>1326.0480331</v>
@@ -5831,7 +5831,7 @@
         <v>43163</v>
       </c>
       <c r="B495">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C495">
         <v>1326.0480331</v>
@@ -5842,7 +5842,7 @@
         <v>43164</v>
       </c>
       <c r="B496">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C496">
         <v>1334.0966439</v>
@@ -5853,7 +5853,7 @@
         <v>43164</v>
       </c>
       <c r="B497">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C497">
         <v>1334.0966439</v>
@@ -5864,7 +5864,7 @@
         <v>43165</v>
       </c>
       <c r="B498">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C498">
         <v>1342.0432577</v>
@@ -5875,7 +5875,7 @@
         <v>43165</v>
       </c>
       <c r="B499">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C499">
         <v>1342.0432577</v>
@@ -5886,7 +5886,7 @@
         <v>43166</v>
       </c>
       <c r="B500">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C500">
         <v>1349.8950344</v>
@@ -5897,7 +5897,7 @@
         <v>43166</v>
       </c>
       <c r="B501">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C501">
         <v>1349.8950344</v>
@@ -5908,7 +5908,7 @@
         <v>43167</v>
       </c>
       <c r="B502">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C502">
         <v>1357.6585675</v>
@@ -5919,7 +5919,7 @@
         <v>43167</v>
       </c>
       <c r="B503">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C503">
         <v>1357.6585675</v>
@@ -5930,7 +5930,7 @@
         <v>43168</v>
       </c>
       <c r="B504">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C504">
         <v>1365.3397597</v>
@@ -5941,7 +5941,7 @@
         <v>43168</v>
       </c>
       <c r="B505">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C505">
         <v>1365.3397597</v>
@@ -5952,7 +5952,7 @@
         <v>43169</v>
       </c>
       <c r="B506">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C506">
         <v>1372.9437229</v>
@@ -5963,7 +5963,7 @@
         <v>43169</v>
       </c>
       <c r="B507">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C507">
         <v>1372.9437229</v>
@@ -5974,7 +5974,7 @@
         <v>43170</v>
       </c>
       <c r="B508">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C508">
         <v>1380.4747028</v>
@@ -5985,7 +5985,7 @@
         <v>43170</v>
       </c>
       <c r="B509">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C509">
         <v>1380.4747028</v>
@@ -5996,7 +5996,7 @@
         <v>43171</v>
       </c>
       <c r="B510">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C510">
         <v>1387.9360282</v>
@@ -6007,7 +6007,7 @@
         <v>43171</v>
       </c>
       <c r="B511">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C511">
         <v>1387.9360282</v>
@@ -6018,7 +6018,7 @@
         <v>43172</v>
       </c>
       <c r="B512">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C512">
         <v>1395.3300834</v>
@@ -6029,7 +6029,7 @@
         <v>43172</v>
       </c>
       <c r="B513">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C513">
         <v>1395.3300834</v>
@@ -6040,7 +6040,7 @@
         <v>43173</v>
       </c>
       <c r="B514">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C514">
         <v>1402.658306</v>
@@ -6051,7 +6051,7 @@
         <v>43173</v>
       </c>
       <c r="B515">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C515">
         <v>1402.658306</v>
@@ -6062,7 +6062,7 @@
         <v>43174</v>
       </c>
       <c r="B516">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C516">
         <v>1409.9212085</v>
@@ -6073,7 +6073,7 @@
         <v>43174</v>
       </c>
       <c r="B517">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C517">
         <v>1409.9212085</v>
@@ -6084,7 +6084,7 @@
         <v>43175</v>
       </c>
       <c r="B518">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C518">
         <v>1417.1184255</v>
@@ -6095,7 +6095,7 @@
         <v>43175</v>
       </c>
       <c r="B519">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C519">
         <v>1417.1184255</v>
@@ -6106,7 +6106,7 @@
         <v>43176</v>
       </c>
       <c r="B520">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C520">
         <v>1424.2487853</v>
@@ -6117,7 +6117,7 @@
         <v>43176</v>
       </c>
       <c r="B521">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C521">
         <v>1424.2487853</v>
@@ -6128,7 +6128,7 @@
         <v>43177</v>
       </c>
       <c r="B522">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C522">
         <v>1431.3104091</v>
@@ -6139,7 +6139,7 @@
         <v>43177</v>
       </c>
       <c r="B523">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C523">
         <v>1431.3104091</v>
@@ -6150,7 +6150,7 @@
         <v>43178</v>
       </c>
       <c r="B524">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C524">
         <v>1438.300834</v>
@@ -6161,7 +6161,7 @@
         <v>43178</v>
       </c>
       <c r="B525">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C525">
         <v>1438.300834</v>
@@ -6172,7 +6172,7 @@
         <v>43179</v>
       </c>
       <c r="B526">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C526">
         <v>1445.2171625</v>
@@ -6183,7 +6183,7 @@
         <v>43179</v>
       </c>
       <c r="B527">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C527">
         <v>1445.2171625</v>
@@ -6194,7 +6194,7 @@
         <v>43180</v>
       </c>
       <c r="B528">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C528">
         <v>1452.0562341</v>
@@ -6205,7 +6205,7 @@
         <v>43180</v>
       </c>
       <c r="B529">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C529">
         <v>1452.0562341</v>
@@ -6216,7 +6216,7 @@
         <v>43181</v>
       </c>
       <c r="B530">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C530">
         <v>1458.8148176</v>
@@ -6227,7 +6227,7 @@
         <v>43181</v>
       </c>
       <c r="B531">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C531">
         <v>1458.8148176</v>
@@ -6238,7 +6238,7 @@
         <v>43182</v>
       </c>
       <c r="B532">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C532">
         <v>1465.4898201</v>
@@ -6249,7 +6249,7 @@
         <v>43182</v>
       </c>
       <c r="B533">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C533">
         <v>1465.4898201</v>
@@ -6260,7 +6260,7 @@
         <v>43183</v>
       </c>
       <c r="B534">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C534">
         <v>1472.0785062</v>
@@ -6271,7 +6271,7 @@
         <v>43183</v>
       </c>
       <c r="B535">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C535">
         <v>1472.0785062</v>
@@ -6282,7 +6282,7 @@
         <v>43184</v>
       </c>
       <c r="B536">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C536">
         <v>1478.5787216</v>
@@ -6293,7 +6293,7 @@
         <v>43184</v>
       </c>
       <c r="B537">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C537">
         <v>1478.5787216</v>
@@ -6304,7 +6304,7 @@
         <v>43185</v>
       </c>
       <c r="B538">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C538">
         <v>1484.9891145</v>
@@ -6315,7 +6315,7 @@
         <v>43185</v>
       </c>
       <c r="B539">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C539">
         <v>1484.9891145</v>
@@ -6326,7 +6326,7 @@
         <v>43186</v>
       </c>
       <c r="B540">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C540">
         <v>1491.3093441</v>
@@ -6337,7 +6337,7 @@
         <v>43186</v>
       </c>
       <c r="B541">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C541">
         <v>1491.3093441</v>
@@ -6348,7 +6348,7 @@
         <v>43187</v>
       </c>
       <c r="B542">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C542">
         <v>1497.5402706</v>
@@ -6359,7 +6359,7 @@
         <v>43187</v>
       </c>
       <c r="B543">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C543">
         <v>1497.5402706</v>
@@ -6370,7 +6370,7 @@
         <v>43188</v>
       </c>
       <c r="B544">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C544">
         <v>1503.6841168</v>
@@ -6381,7 +6381,7 @@
         <v>43188</v>
       </c>
       <c r="B545">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C545">
         <v>1503.6841168</v>
@@ -6392,7 +6392,7 @@
         <v>43189</v>
       </c>
       <c r="B546">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C546">
         <v>1509.7445937</v>
@@ -6403,7 +6403,7 @@
         <v>43189</v>
       </c>
       <c r="B547">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C547">
         <v>1509.7445937</v>
@@ -6414,7 +6414,7 @@
         <v>43190</v>
       </c>
       <c r="B548">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C548">
         <v>1515.7269841</v>
@@ -6425,7 +6425,7 @@
         <v>43190</v>
       </c>
       <c r="B549">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C549">
         <v>1515.7269841</v>
@@ -6436,7 +6436,7 @@
         <v>43191</v>
       </c>
       <c r="B550">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C550">
         <v>1521.6381781</v>
@@ -6447,7 +6447,7 @@
         <v>43191</v>
       </c>
       <c r="B551">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C551">
         <v>1521.6381781</v>
@@ -6458,7 +6458,7 @@
         <v>43192</v>
       </c>
       <c r="B552">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C552">
         <v>1527.4866555</v>
@@ -6469,7 +6469,7 @@
         <v>43192</v>
       </c>
       <c r="B553">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C553">
         <v>1527.4866555</v>
@@ -6480,7 +6480,7 @@
         <v>43193</v>
       </c>
       <c r="B554">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C554">
         <v>1533.2824131</v>
@@ -6491,7 +6491,7 @@
         <v>43193</v>
       </c>
       <c r="B555">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C555">
         <v>1533.2824131</v>
@@ -6502,7 +6502,7 @@
         <v>43194</v>
       </c>
       <c r="B556">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C556">
         <v>1539.0368331</v>
@@ -6513,7 +6513,7 @@
         <v>43194</v>
       </c>
       <c r="B557">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C557">
         <v>1539.0368331</v>
@@ -6524,7 +6524,7 @@
         <v>43195</v>
       </c>
       <c r="B558">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C558">
         <v>1544.7624907</v>
@@ -6535,7 +6535,7 @@
         <v>43195</v>
       </c>
       <c r="B559">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C559">
         <v>1544.7624907</v>
@@ -6546,7 +6546,7 @@
         <v>43196</v>
       </c>
       <c r="B560">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C560">
         <v>1550.4729005</v>
@@ -6557,7 +6557,7 @@
         <v>43196</v>
       </c>
       <c r="B561">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C561">
         <v>1550.4729005</v>
@@ -6568,7 +6568,7 @@
         <v>43197</v>
       </c>
       <c r="B562">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C562">
         <v>1556.1821988</v>
@@ -6579,7 +6579,7 @@
         <v>43197</v>
       </c>
       <c r="B563">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C563">
         <v>1556.1821988</v>
@@ -6590,7 +6590,7 @@
         <v>43198</v>
       </c>
       <c r="B564">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C564">
         <v>1561.9047625</v>
@@ -6601,7 +6601,7 @@
         <v>43198</v>
       </c>
       <c r="B565">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C565">
         <v>1561.9047625</v>
@@ -6612,7 +6612,7 @@
         <v>43199</v>
       </c>
       <c r="B566">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C566">
         <v>1567.6547623</v>
@@ -6623,7 +6623,7 @@
         <v>43199</v>
       </c>
       <c r="B567">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C567">
         <v>1567.6547623</v>
@@ -6634,7 +6634,7 @@
         <v>43200</v>
       </c>
       <c r="B568">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C568">
         <v>1573.4456546</v>
@@ -6645,7 +6645,7 @@
         <v>43200</v>
       </c>
       <c r="B569">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C569">
         <v>1573.4456546</v>
@@ -6656,7 +6656,7 @@
         <v>43201</v>
       </c>
       <c r="B570">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C570">
         <v>1579.2896146</v>
@@ -6667,7 +6667,7 @@
         <v>43201</v>
       </c>
       <c r="B571">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C571">
         <v>1579.2896146</v>
@@ -6678,7 +6678,7 @@
         <v>43202</v>
       </c>
       <c r="B572">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C572">
         <v>1585.1969217</v>
@@ -6689,7 +6689,7 @@
         <v>43202</v>
       </c>
       <c r="B573">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C573">
         <v>1585.1969217</v>
@@ -6700,7 +6700,7 @@
         <v>43203</v>
       </c>
       <c r="B574">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C574">
         <v>1591.1753137</v>
@@ -6711,7 +6711,7 @@
         <v>43203</v>
       </c>
       <c r="B575">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C575">
         <v>1591.1753137</v>
@@ -6722,7 +6722,7 @@
         <v>43204</v>
       </c>
       <c r="B576">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C576">
         <v>1597.2293352</v>
@@ -6733,7 +6733,7 @@
         <v>43204</v>
       </c>
       <c r="B577">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C577">
         <v>1597.2293352</v>
@@ -6744,7 +6744,7 @@
         <v>43205</v>
       </c>
       <c r="B578">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C578">
         <v>1603.3597178</v>
@@ -6755,7 +6755,7 @@
         <v>43206</v>
       </c>
       <c r="B579">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C579">
         <v>1609.5628387</v>
@@ -6766,7 +6766,7 @@
         <v>43207</v>
       </c>
       <c r="B580">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C580">
         <v>1615.8303139</v>
@@ -6777,7 +6777,7 @@
         <v>43208</v>
       </c>
       <c r="B581">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C581">
         <v>1622.1487902</v>
@@ -6788,7 +6788,7 @@
         <v>43209</v>
       </c>
       <c r="B582">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C582">
         <v>1628.4999946</v>
@@ -6799,7 +6799,7 @@
         <v>43210</v>
       </c>
       <c r="B583">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C583">
         <v>1634.861091</v>
@@ -6810,7 +6810,7 @@
         <v>43211</v>
       </c>
       <c r="B584">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C584">
         <v>1641.2053705</v>
@@ -6821,7 +6821,7 @@
         <v>43212</v>
       </c>
       <c r="B585">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C585">
         <v>1647.5032695</v>
@@ -6832,7 +6832,7 @@
         <v>43213</v>
       </c>
       <c r="B586">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C586">
         <v>1653.723667</v>
@@ -6843,7 +6843,7 @@
         <v>43214</v>
       </c>
       <c r="B587">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C587">
         <v>1659.8353736</v>
@@ -6854,7 +6854,7 @@
         <v>43215</v>
       </c>
       <c r="B588">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C588">
         <v>1665.8086876</v>
@@ -6865,7 +6865,7 @@
         <v>43216</v>
       </c>
       <c r="B589">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C589">
         <v>1671.6168765</v>
@@ -6876,7 +6876,7 @@
         <v>43217</v>
       </c>
       <c r="B590">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C590">
         <v>1677.2374406</v>
@@ -6887,7 +6887,7 @@
         <v>43218</v>
       </c>
       <c r="B591">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C591">
         <v>1682.6530403</v>
@@ -6898,7 +6898,7 @@
         <v>43219</v>
       </c>
       <c r="B592">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C592">
         <v>1687.8520115</v>
@@ -6909,7 +6909,7 @@
         <v>43220</v>
       </c>
       <c r="B593">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C593">
         <v>1692.828442</v>
@@ -6920,7 +6920,7 @@
         <v>43221</v>
       </c>
       <c r="B594">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C594">
         <v>1697.5818396</v>
@@ -6931,7 +6931,7 @@
         <v>43222</v>
       </c>
       <c r="B595">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C595">
         <v>1702.1164638</v>
@@ -6942,7 +6942,7 @@
         <v>43223</v>
       </c>
       <c r="B596">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C596">
         <v>1706.44042</v>
@@ -6953,7 +6953,7 @@
         <v>43224</v>
       </c>
       <c r="B597">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C597">
         <v>1710.5646298</v>
@@ -6964,7 +6964,7 @@
         <v>43225</v>
       </c>
       <c r="B598">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C598">
         <v>1714.5017804</v>
@@ -6975,7 +6975,7 @@
         <v>43226</v>
       </c>
       <c r="B599">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C599">
         <v>1718.2653417</v>
@@ -6986,7 +6986,7 @@
         <v>43227</v>
       </c>
       <c r="B600">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C600">
         <v>1721.8687145</v>
@@ -6997,7 +6997,7 @@
         <v>43228</v>
       </c>
       <c r="B601">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C601">
         <v>1725.324546</v>
@@ -7008,7 +7008,7 @@
         <v>43229</v>
       </c>
       <c r="B602">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C602">
         <v>1728.6442289</v>
@@ -7019,7 +7019,7 @@
         <v>43230</v>
       </c>
       <c r="B603">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C603">
         <v>1731.8375798</v>
@@ -7030,7 +7030,7 @@
         <v>43231</v>
       </c>
       <c r="B604">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C604">
         <v>1734.91268</v>
@@ -7041,7 +7041,7 @@
         <v>43232</v>
       </c>
       <c r="B605">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C605">
         <v>1737.8758573</v>
@@ -7052,7 +7052,7 @@
         <v>43233</v>
       </c>
       <c r="B606">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C606">
         <v>1740.7317782</v>
@@ -7063,7 +7063,7 @@
         <v>43234</v>
       </c>
       <c r="B607">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C607">
         <v>1743.4836283</v>
@@ -7074,7 +7074,7 @@
         <v>43235</v>
       </c>
       <c r="B608">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C608">
         <v>1746.1333506</v>
@@ -7085,7 +7085,7 @@
         <v>43236</v>
       </c>
       <c r="B609">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C609">
         <v>1748.6819236</v>
@@ -7096,7 +7096,7 @@
         <v>43237</v>
       </c>
       <c r="B610">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C610">
         <v>1751.1296555</v>
@@ -7107,7 +7107,7 @@
         <v>43238</v>
       </c>
       <c r="B611">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C611">
         <v>1753.4764807</v>
@@ -7118,7 +7118,7 @@
         <v>43239</v>
       </c>
       <c r="B612">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C612">
         <v>1755.7222429</v>
@@ -7129,7 +7129,7 @@
         <v>43240</v>
       </c>
       <c r="B613">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C613">
         <v>1757.8669521</v>
@@ -7140,7 +7140,7 @@
         <v>43241</v>
       </c>
       <c r="B614">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C614">
         <v>1759.911007</v>
@@ -7151,7 +7151,7 @@
         <v>43242</v>
       </c>
       <c r="B615">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C615">
         <v>1761.8553738</v>
@@ -7162,7 +7162,7 @@
         <v>43243</v>
       </c>
       <c r="B616">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C616">
         <v>1763.701716</v>
@@ -7173,7 +7173,7 @@
         <v>43244</v>
       </c>
       <c r="B617">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C617">
         <v>1765.4524707</v>
@@ -7184,7 +7184,7 @@
         <v>43245</v>
       </c>
       <c r="B618">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C618">
         <v>1767.1108711</v>
@@ -7195,7 +7195,7 @@
         <v>43246</v>
       </c>
       <c r="B619">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C619">
         <v>1768.6809151</v>
@@ -7206,7 +7206,7 @@
         <v>43247</v>
       </c>
       <c r="B620">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C620">
         <v>1770.1672849</v>
@@ -7217,7 +7217,7 @@
         <v>43248</v>
       </c>
       <c r="B621">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C621">
         <v>1771.5752228</v>
@@ -7228,7 +7228,7 @@
         <v>43249</v>
       </c>
       <c r="B622">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C622">
         <v>1772.9103716</v>
@@ -7239,7 +7239,7 @@
         <v>43250</v>
       </c>
       <c r="B623">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C623">
         <v>1774.1785908</v>
@@ -7250,7 +7250,7 @@
         <v>43251</v>
       </c>
       <c r="B624">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C624">
         <v>1775.3857587</v>
@@ -7261,7 +7261,7 @@
         <v>43252</v>
       </c>
       <c r="B625">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C625">
         <v>1776.5375739</v>
@@ -7272,7 +7272,7 @@
         <v>43253</v>
       </c>
       <c r="B626">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C626">
         <v>1777.6393677</v>
@@ -7283,7 +7283,7 @@
         <v>43254</v>
       </c>
       <c r="B627">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C627">
         <v>1778.6959382</v>
@@ -7294,7 +7294,7 @@
         <v>43255</v>
       </c>
       <c r="B628">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C628">
         <v>1779.711418</v>
@@ -7305,7 +7305,7 @@
         <v>43256</v>
       </c>
       <c r="B629">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C629">
         <v>1780.6891797</v>
@@ -7316,7 +7316,7 @@
         <v>43257</v>
       </c>
       <c r="B630">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C630">
         <v>1781.6317868</v>
@@ -7327,7 +7327,7 @@
         <v>43258</v>
       </c>
       <c r="B631">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C631">
         <v>1782.5409906</v>
@@ -7338,7 +7338,7 @@
         <v>43259</v>
       </c>
       <c r="B632">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C632">
         <v>1783.4177705</v>
@@ -7349,7 +7349,7 @@
         <v>43260</v>
       </c>
       <c r="B633">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C633">
         <v>1784.262415</v>
@@ -7360,7 +7360,7 @@
         <v>43261</v>
       </c>
       <c r="B634">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C634">
         <v>1785.0746347</v>
@@ -7371,7 +7371,7 @@
         <v>43262</v>
       </c>
       <c r="B635">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C635">
         <v>1785.8536987</v>
@@ -7382,7 +7382,7 @@
         <v>43263</v>
       </c>
       <c r="B636">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C636">
         <v>1786.5985836</v>
@@ -7393,7 +7393,7 @@
         <v>43264</v>
       </c>
       <c r="B637">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C637">
         <v>1787.3081252</v>
@@ -7404,7 +7404,7 @@
         <v>43265</v>
       </c>
       <c r="B638">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C638">
         <v>1787.9811617</v>
@@ -7415,7 +7415,7 @@
         <v>43266</v>
       </c>
       <c r="B639">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C639">
         <v>1788.616662</v>
@@ -7426,7 +7426,7 @@
         <v>43267</v>
       </c>
       <c r="B640">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C640">
         <v>1789.2138295</v>
@@ -7437,7 +7437,7 @@
         <v>43268</v>
       </c>
       <c r="B641">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C641">
         <v>1789.7721814</v>
@@ -7448,7 +7448,7 @@
         <v>43269</v>
       </c>
       <c r="B642">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C642">
         <v>1790.2915979</v>
@@ -7459,7 +7459,7 @@
         <v>43270</v>
       </c>
       <c r="B643">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C643">
         <v>1790.7723457</v>
@@ -7470,7 +7470,7 @@
         <v>43271</v>
       </c>
       <c r="B644">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C644">
         <v>1791.215075</v>
@@ -7481,7 +7481,7 @@
         <v>43272</v>
       </c>
       <c r="B645">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C645">
         <v>1791.6207972</v>
@@ -7492,7 +7492,7 @@
         <v>43273</v>
       </c>
       <c r="B646">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C646">
         <v>1791.9908455</v>
@@ -7503,7 +7503,7 @@
         <v>43274</v>
       </c>
       <c r="B647">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C647">
         <v>1792.3268251</v>
@@ -7514,7 +7514,7 @@
         <v>43275</v>
       </c>
       <c r="B648">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C648">
         <v>1792.6305569</v>
@@ -7525,7 +7525,7 @@
         <v>43276</v>
       </c>
       <c r="B649">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C649">
         <v>1792.9040192</v>
@@ -7536,7 +7536,7 @@
         <v>43277</v>
       </c>
       <c r="B650">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C650">
         <v>1793.1492913</v>
@@ -7547,7 +7547,7 @@
         <v>43278</v>
       </c>
       <c r="B651">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C651">
         <v>1793.368501</v>
@@ -7558,7 +7558,7 @@
         <v>43279</v>
       </c>
       <c r="B652">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C652">
         <v>1793.5637784</v>
@@ -7569,7 +7569,7 @@
         <v>43280</v>
       </c>
       <c r="B653">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C653">
         <v>1793.7372166</v>
@@ -7580,7 +7580,7 @@
         <v>43281</v>
       </c>
       <c r="B654">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C654">
         <v>1793.89084</v>
